--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.588152333333333</v>
+        <v>4.821747</v>
       </c>
       <c r="N2">
-        <v>13.764457</v>
+        <v>14.465241</v>
       </c>
       <c r="O2">
-        <v>0.06575791047752351</v>
+        <v>0.06513881839368539</v>
       </c>
       <c r="P2">
-        <v>0.06575791047752351</v>
+        <v>0.0651388183936854</v>
       </c>
       <c r="Q2">
-        <v>223.6569779410937</v>
+        <v>230.780385220049</v>
       </c>
       <c r="R2">
-        <v>2012.912801469843</v>
+        <v>2077.023466980441</v>
       </c>
       <c r="S2">
-        <v>0.01018847028700116</v>
+        <v>0.007999817046756527</v>
       </c>
       <c r="T2">
-        <v>0.01018847028700116</v>
+        <v>0.007999817046756527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.334561</v>
       </c>
       <c r="O3">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492138</v>
       </c>
       <c r="P3">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492139</v>
       </c>
       <c r="Q3">
-        <v>2377.77238009437</v>
+        <v>2334.641113728196</v>
       </c>
       <c r="R3">
-        <v>21399.95142084933</v>
+        <v>21011.77002355376</v>
       </c>
       <c r="S3">
-        <v>0.1083170463397036</v>
+        <v>0.08092846262412309</v>
       </c>
       <c r="T3">
-        <v>0.1083170463397036</v>
+        <v>0.08092846262412309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.528465</v>
+        <v>9.394689</v>
       </c>
       <c r="N4">
-        <v>16.585395</v>
+        <v>28.184067</v>
       </c>
       <c r="O4">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="P4">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="Q4">
-        <v>269.4940544083449</v>
+        <v>449.652365925163</v>
       </c>
       <c r="R4">
-        <v>2425.446489675104</v>
+        <v>4046.871293326466</v>
       </c>
       <c r="S4">
-        <v>0.01227653253271651</v>
+        <v>0.01558683879746823</v>
       </c>
       <c r="T4">
-        <v>0.01227653253271651</v>
+        <v>0.01558683879746823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.965336333333333</v>
+        <v>5.127123333333333</v>
       </c>
       <c r="N5">
-        <v>11.896009</v>
+        <v>15.38137</v>
       </c>
       <c r="O5">
-        <v>0.056831642168072</v>
+        <v>0.0692642636977898</v>
       </c>
       <c r="P5">
-        <v>0.05683164216807201</v>
+        <v>0.06926426369778982</v>
       </c>
       <c r="Q5">
-        <v>193.2967949625656</v>
+        <v>245.3964295383745</v>
       </c>
       <c r="R5">
-        <v>1739.671154663091</v>
+        <v>2208.56786584537</v>
       </c>
       <c r="S5">
-        <v>0.008805442468990845</v>
+        <v>0.00850647050598531</v>
       </c>
       <c r="T5">
-        <v>0.008805442468990846</v>
+        <v>0.00850647050598531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.913249333333333</v>
+        <v>5.900888999999999</v>
       </c>
       <c r="N6">
-        <v>20.739748</v>
+        <v>17.702667</v>
       </c>
       <c r="O6">
-        <v>0.09908145975612384</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="P6">
-        <v>0.09908145975612385</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="Q6">
-        <v>336.9976280894946</v>
+        <v>282.4307116405629</v>
       </c>
       <c r="R6">
-        <v>3032.978652805451</v>
+        <v>2541.876404765067</v>
       </c>
       <c r="S6">
-        <v>0.01535159042291982</v>
+        <v>0.009790234206236469</v>
       </c>
       <c r="T6">
-        <v>0.01535159042291982</v>
+        <v>0.009790234206236467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.588152333333333</v>
+        <v>4.821747</v>
       </c>
       <c r="N7">
-        <v>13.764457</v>
+        <v>14.465241</v>
       </c>
       <c r="O7">
-        <v>0.06575791047752351</v>
+        <v>0.06513881839368539</v>
       </c>
       <c r="P7">
-        <v>0.06575791047752351</v>
+        <v>0.0651388183936854</v>
       </c>
       <c r="Q7">
-        <v>85.59502219394624</v>
+        <v>89.95288549601202</v>
       </c>
       <c r="R7">
-        <v>770.3551997455161</v>
+        <v>809.5759694641081</v>
       </c>
       <c r="S7">
-        <v>0.003899195761144162</v>
+        <v>0.003118144664286742</v>
       </c>
       <c r="T7">
-        <v>0.003899195761144161</v>
+        <v>0.003118144664286743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>146.334561</v>
       </c>
       <c r="O8">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492138</v>
       </c>
       <c r="P8">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492139</v>
       </c>
       <c r="Q8">
-        <v>909.9894021635853</v>
+        <v>909.9894021635854</v>
       </c>
       <c r="R8">
-        <v>8189.904619472267</v>
+        <v>8189.904619472269</v>
       </c>
       <c r="S8">
-        <v>0.04145365850320806</v>
+        <v>0.03154405312589627</v>
       </c>
       <c r="T8">
-        <v>0.04145365850320806</v>
+        <v>0.03154405312589628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.528465</v>
+        <v>9.394689</v>
       </c>
       <c r="N9">
-        <v>16.585395</v>
+        <v>28.184067</v>
       </c>
       <c r="O9">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="P9">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="Q9">
-        <v>103.1371781044733</v>
+        <v>175.264148842244</v>
       </c>
       <c r="R9">
-        <v>928.2346029402599</v>
+        <v>1577.377339580196</v>
       </c>
       <c r="S9">
-        <v>0.004698311156110377</v>
+        <v>0.006075391217743973</v>
       </c>
       <c r="T9">
-        <v>0.004698311156110377</v>
+        <v>0.006075391217743974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.965336333333333</v>
+        <v>5.127123333333333</v>
       </c>
       <c r="N10">
-        <v>11.896009</v>
+        <v>15.38137</v>
       </c>
       <c r="O10">
-        <v>0.056831642168072</v>
+        <v>0.0692642636977898</v>
       </c>
       <c r="P10">
-        <v>0.05683164216807201</v>
+        <v>0.06926426369778982</v>
       </c>
       <c r="Q10">
-        <v>73.97597699454356</v>
+        <v>95.64988335706224</v>
       </c>
       <c r="R10">
-        <v>665.783792950892</v>
+        <v>860.84895021356</v>
       </c>
       <c r="S10">
-        <v>0.003369901759824801</v>
+        <v>0.003315626528097262</v>
       </c>
       <c r="T10">
-        <v>0.003369901759824801</v>
+        <v>0.003315626528097263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.913249333333333</v>
+        <v>5.900888999999999</v>
       </c>
       <c r="N11">
-        <v>20.739748</v>
+        <v>17.702667</v>
       </c>
       <c r="O11">
-        <v>0.09908145975612384</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="P11">
-        <v>0.09908145975612385</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="Q11">
-        <v>128.9712474932249</v>
+        <v>110.084994617444</v>
       </c>
       <c r="R11">
-        <v>1160.741227439024</v>
+        <v>990.7649515569959</v>
       </c>
       <c r="S11">
-        <v>0.005875156389300217</v>
+        <v>0.003816008087918825</v>
       </c>
       <c r="T11">
-        <v>0.005875156389300217</v>
+        <v>0.003816008087918825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.588152333333333</v>
+        <v>4.821747</v>
       </c>
       <c r="N12">
-        <v>13.764457</v>
+        <v>14.465241</v>
       </c>
       <c r="O12">
-        <v>0.06575791047752351</v>
+        <v>0.06513881839368539</v>
       </c>
       <c r="P12">
-        <v>0.06575791047752351</v>
+        <v>0.0651388183936854</v>
       </c>
       <c r="Q12">
-        <v>448.0852640534076</v>
+        <v>824.8074664248581</v>
       </c>
       <c r="R12">
-        <v>4032.767376480668</v>
+        <v>7423.267197823723</v>
       </c>
       <c r="S12">
-        <v>0.02041207674751651</v>
+        <v>0.0285912896102767</v>
       </c>
       <c r="T12">
-        <v>0.02041207674751651</v>
+        <v>0.0285912896102767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.334561</v>
       </c>
       <c r="O13">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492138</v>
       </c>
       <c r="P13">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492139</v>
       </c>
       <c r="Q13">
-        <v>4763.744796167729</v>
+        <v>8343.990847356352</v>
       </c>
       <c r="R13">
-        <v>42873.70316550956</v>
+        <v>75095.91762620717</v>
       </c>
       <c r="S13">
-        <v>0.2170076371299017</v>
+        <v>0.2892377536982413</v>
       </c>
       <c r="T13">
-        <v>0.2170076371299017</v>
+        <v>0.2892377536982414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.528465</v>
+        <v>9.394689</v>
       </c>
       <c r="N14">
-        <v>16.585395</v>
+        <v>28.184067</v>
       </c>
       <c r="O14">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="P14">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="Q14">
-        <v>539.9174916965534</v>
+        <v>1607.054379240446</v>
       </c>
       <c r="R14">
-        <v>4859.257425268979</v>
+        <v>14463.48941316402</v>
       </c>
       <c r="S14">
-        <v>0.02459540217444659</v>
+        <v>0.05570725174868792</v>
       </c>
       <c r="T14">
-        <v>0.02459540217444659</v>
+        <v>0.05570725174868794</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.965336333333333</v>
+        <v>5.127123333333333</v>
       </c>
       <c r="N15">
-        <v>11.896009</v>
+        <v>15.38137</v>
       </c>
       <c r="O15">
-        <v>0.056831642168072</v>
+        <v>0.0692642636977898</v>
       </c>
       <c r="P15">
-        <v>0.05683164216807201</v>
+        <v>0.06926426369778982</v>
       </c>
       <c r="Q15">
-        <v>387.2601973290129</v>
+        <v>877.0451055632824</v>
       </c>
       <c r="R15">
-        <v>3485.341775961116</v>
+        <v>7893.405950069541</v>
       </c>
       <c r="S15">
-        <v>0.0176412515725936</v>
+        <v>0.03040206549429918</v>
       </c>
       <c r="T15">
-        <v>0.01764125157259361</v>
+        <v>0.03040206549429918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.913249333333333</v>
+        <v>5.900888999999999</v>
       </c>
       <c r="N16">
-        <v>20.739748</v>
+        <v>17.702667</v>
       </c>
       <c r="O16">
-        <v>0.09908145975612384</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="P16">
-        <v>0.09908145975612385</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="Q16">
-        <v>675.1574333067502</v>
+        <v>1009.405368167246</v>
       </c>
       <c r="R16">
-        <v>6076.416899760752</v>
+        <v>9084.648313505215</v>
       </c>
       <c r="S16">
-        <v>0.03075612266434861</v>
+        <v>0.03499022788982832</v>
       </c>
       <c r="T16">
-        <v>0.03075612266434862</v>
+        <v>0.03499022788982832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.588152333333333</v>
+        <v>4.821747</v>
       </c>
       <c r="N17">
-        <v>13.764457</v>
+        <v>14.465241</v>
       </c>
       <c r="O17">
-        <v>0.06575791047752351</v>
+        <v>0.06513881839368539</v>
       </c>
       <c r="P17">
-        <v>0.06575791047752351</v>
+        <v>0.0651388183936854</v>
       </c>
       <c r="Q17">
-        <v>49.71020951661878</v>
+        <v>60.88924773810901</v>
       </c>
       <c r="R17">
-        <v>447.391885649569</v>
+        <v>548.0032296429811</v>
       </c>
       <c r="S17">
-        <v>0.002264498954081665</v>
+        <v>0.002110676960501012</v>
       </c>
       <c r="T17">
-        <v>0.002264498954081665</v>
+        <v>0.002110676960501013</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>146.334561</v>
       </c>
       <c r="O18">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492138</v>
       </c>
       <c r="P18">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492139</v>
       </c>
       <c r="Q18">
-        <v>528.4859175216595</v>
+        <v>615.973238010789</v>
       </c>
       <c r="R18">
-        <v>4756.373257694936</v>
+        <v>5543.759142097101</v>
       </c>
       <c r="S18">
-        <v>0.02407464822844079</v>
+        <v>0.02135221849589163</v>
       </c>
       <c r="T18">
-        <v>0.02407464822844079</v>
+        <v>0.02135221849589164</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.528465</v>
+        <v>9.394689</v>
       </c>
       <c r="N19">
-        <v>16.585395</v>
+        <v>28.184067</v>
       </c>
       <c r="O19">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="P19">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="Q19">
-        <v>59.89800108830166</v>
+        <v>118.636574242383</v>
       </c>
       <c r="R19">
-        <v>539.082009794715</v>
+        <v>1067.729168181447</v>
       </c>
       <c r="S19">
-        <v>0.002728593625635306</v>
+        <v>0.004112441740176805</v>
       </c>
       <c r="T19">
-        <v>0.002728593625635306</v>
+        <v>0.004112441740176806</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.965336333333333</v>
+        <v>5.127123333333333</v>
       </c>
       <c r="N20">
-        <v>11.896009</v>
+        <v>15.38137</v>
       </c>
       <c r="O20">
-        <v>0.056831642168072</v>
+        <v>0.0692642636977898</v>
       </c>
       <c r="P20">
-        <v>0.05683164216807201</v>
+        <v>0.06926426369778982</v>
       </c>
       <c r="Q20">
-        <v>42.96232679586144</v>
+        <v>64.74555442813001</v>
       </c>
       <c r="R20">
-        <v>386.660941162753</v>
+        <v>582.70998985317</v>
       </c>
       <c r="S20">
-        <v>0.001957105895150536</v>
+        <v>0.002244352740472243</v>
       </c>
       <c r="T20">
-        <v>0.001957105895150536</v>
+        <v>0.002244352740472244</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.913249333333333</v>
+        <v>5.900888999999999</v>
       </c>
       <c r="N21">
-        <v>20.739748</v>
+        <v>17.702667</v>
       </c>
       <c r="O21">
-        <v>0.09908145975612384</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="P21">
-        <v>0.09908145975612385</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="Q21">
-        <v>74.9014086354351</v>
+        <v>74.516703633783</v>
       </c>
       <c r="R21">
-        <v>674.112677718916</v>
+        <v>670.6503327040469</v>
       </c>
       <c r="S21">
-        <v>0.003412058874092693</v>
+        <v>0.002583061794568204</v>
       </c>
       <c r="T21">
-        <v>0.003412058874092694</v>
+        <v>0.002583061794568204</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.588152333333333</v>
+        <v>4.821747</v>
       </c>
       <c r="N22">
-        <v>13.764457</v>
+        <v>14.465241</v>
       </c>
       <c r="O22">
-        <v>0.06575791047752351</v>
+        <v>0.06513881839368539</v>
       </c>
       <c r="P22">
-        <v>0.06575791047752351</v>
+        <v>0.0651388183936854</v>
       </c>
       <c r="Q22">
-        <v>636.4681001576677</v>
+        <v>672.708189633158</v>
       </c>
       <c r="R22">
-        <v>5728.212901419009</v>
+        <v>6054.373706698422</v>
       </c>
       <c r="S22">
-        <v>0.02899366872778002</v>
+        <v>0.0233188901118644</v>
       </c>
       <c r="T22">
-        <v>0.02899366872778002</v>
+        <v>0.02331889011186441</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>146.334561</v>
       </c>
       <c r="O23">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492138</v>
       </c>
       <c r="P23">
-        <v>0.6990944112074818</v>
+        <v>0.6589631236492139</v>
       </c>
       <c r="Q23">
-        <v>6766.50593823471</v>
+        <v>6805.310579413985</v>
       </c>
       <c r="R23">
-        <v>60898.55344411238</v>
+        <v>61247.79521472586</v>
       </c>
       <c r="S23">
-        <v>0.3082414210062276</v>
+        <v>0.2359006357050615</v>
       </c>
       <c r="T23">
-        <v>0.3082414210062276</v>
+        <v>0.2359006357050615</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.528465</v>
+        <v>9.394689</v>
       </c>
       <c r="N24">
-        <v>16.585395</v>
+        <v>28.184067</v>
       </c>
       <c r="O24">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="P24">
-        <v>0.07923457639079885</v>
+        <v>0.1269164351916751</v>
       </c>
       <c r="Q24">
-        <v>766.9081930376534</v>
+        <v>1310.704238392546</v>
       </c>
       <c r="R24">
-        <v>6902.17373733888</v>
+        <v>11796.33814553291</v>
       </c>
       <c r="S24">
-        <v>0.03493573690189007</v>
+        <v>0.04543451168759814</v>
       </c>
       <c r="T24">
-        <v>0.03493573690189007</v>
+        <v>0.04543451168759816</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.965336333333333</v>
+        <v>5.127123333333333</v>
       </c>
       <c r="N25">
-        <v>11.896009</v>
+        <v>15.38137</v>
       </c>
       <c r="O25">
-        <v>0.056831642168072</v>
+        <v>0.0692642636977898</v>
       </c>
       <c r="P25">
-        <v>0.05683164216807201</v>
+        <v>0.06926426369778982</v>
       </c>
       <c r="Q25">
-        <v>550.071117784633</v>
+        <v>715.3129053831711</v>
       </c>
       <c r="R25">
-        <v>4950.640060061696</v>
+        <v>6437.81614844854</v>
       </c>
       <c r="S25">
-        <v>0.02505794047151222</v>
+        <v>0.02479574842893581</v>
       </c>
       <c r="T25">
-        <v>0.02505794047151222</v>
+        <v>0.02479574842893581</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.913249333333333</v>
+        <v>5.900888999999999</v>
       </c>
       <c r="N26">
-        <v>20.739748</v>
+        <v>17.702667</v>
       </c>
       <c r="O26">
-        <v>0.09908145975612384</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="P26">
-        <v>0.09908145975612385</v>
+        <v>0.07971735906763582</v>
       </c>
       <c r="Q26">
-        <v>959.0053575893903</v>
+        <v>823.2651684993459</v>
       </c>
       <c r="R26">
-        <v>8631.048218304513</v>
+        <v>7409.386516494113</v>
       </c>
       <c r="S26">
-        <v>0.0436865314054625</v>
+        <v>0.02853782708908398</v>
       </c>
       <c r="T26">
-        <v>0.0436865314054625</v>
+        <v>0.02853782708908398</v>
       </c>
     </row>
   </sheetData>
